--- a/bin/ExcelFiles/KeywordDrivenFramework.xlsx
+++ b/bin/ExcelFiles/KeywordDrivenFramework.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tezza\eclipse-workspace\ECommerceStore\src\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8100" windowHeight="4305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8100" windowHeight="4305"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
+    <sheet name="Test Steps" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,121 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Element(object)</t>
-  </si>
-  <si>
-    <t>TextBox</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Popup</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>Uncheck</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Navigate</t>
-  </si>
-  <si>
-    <t>TextBoxType</t>
-  </si>
-  <si>
-    <t>LinkClick</t>
-  </si>
-  <si>
-    <t>ListSelect</t>
-  </si>
-  <si>
-    <t>ButtonClick</t>
-  </si>
-  <si>
-    <t>RadioSelect</t>
-  </si>
-  <si>
-    <t>TextRead</t>
-  </si>
-  <si>
-    <t>CheckBoxCheck</t>
-  </si>
-  <si>
-    <t>CheckBoxUncheck</t>
-  </si>
-  <si>
-    <t>ImageURL</t>
-  </si>
-  <si>
-    <t>BrowserOpen</t>
-  </si>
-  <si>
-    <t>BrowserClose</t>
-  </si>
-  <si>
-    <t>BrowserNavigate</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -201,6 +90,33 @@
   </si>
   <si>
     <t>Close the Browser</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>openLoginpage</t>
+  </si>
+  <si>
+    <t>inputEmail</t>
+  </si>
+  <si>
+    <t>inputPassword</t>
+  </si>
+  <si>
+    <t>clickLoginbutton</t>
+  </si>
+  <si>
+    <t>waitFor</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -216,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,18 +141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -244,34 +154,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,227 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,94 +491,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
